--- a/hebrewOutputs/hebrewComparison_8.xlsx
+++ b/hebrewOutputs/hebrewComparison_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="131">
   <si>
     <t>Sentence</t>
   </si>
@@ -79,141 +79,141 @@
     <t xml:space="preserve"> למה לא משחררים לי אותו?</t>
   </si>
   <si>
+    <t>יואב בסדר</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>הכל בסדר הכל יהיה בסדר. קודם כל אין מה להיבהל.</t>
+  </si>
+  <si>
+    <t>אז יופי כי בעלי כבר אמר לי שהוא תכף בחניון.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>אוקיי.</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז אני רק רוצה שאנחנו נדע מה קורה? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בואי תספרי לי שנייה מה מבחינתך קרה, איך זה התנהל ו... </t>
+  </si>
+  <si>
+    <t>כלום. כאב לו הבטן,</t>
+  </si>
+  <si>
+    <t>כן,</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>כאבה לו הבטן אז הבאנו אותו לפה ובטח הוא קצת התייבש.</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>אהמ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתתם לו נוזלים, נוזלים, </t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ראיתי, הצצתי שהוא מרגיש יותר טוב. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא יודעת מה מחזיקים אותנו פה. </t>
+  </si>
+  <si>
+    <t>לא מחזיקים אתכם</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> דקה, הבאת את יואב, נכון הוא לא הרגיש לא טוב.</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>כאבי בטן קצת בחילות,</t>
+  </si>
+  <si>
+    <t>אא עשינו את הבדיקות ש... שהיינו צריכים לעשות.</t>
+  </si>
+  <si>
+    <t>אוקיי,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">והגענו לאבחנה מסוימת. </t>
+  </si>
+  <si>
+    <t>חשוב לי שתדעי שהכל יהיה בסדר אין מה לדאוג.</t>
+  </si>
+  <si>
+    <t>אני רוצה (לא נשמע) מה לדאוג.</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>מה, אני עכשיו מתחילה לדאוג.</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>טוב מאד שהבאתם אותו למיון דבר ראשון, בזמן שהבאתם אותו.</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>למה מה קרה?</t>
+  </si>
+  <si>
+    <t>לא. הכל בסדר. אין מה לדאוג. אל תהיי בלחץ.</t>
+  </si>
+  <si>
+    <t>נו,</t>
+  </si>
+  <si>
+    <t>הגענו לאבחנה מסוימת של מחלה מסוימת שאפשר להתמודד איתה בלי שום בעיה.</t>
+  </si>
+  <si>
+    <t>הגלוקוז שלו היה מאד גבוה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> שזה מה שהוביל לסימפטומים שאיתם הגעתם לפה. </t>
+  </si>
+  <si>
+    <t>והגענו לאבחנה של סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>מה?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>כן. יש לכם במשפחה איזשהו קשר בהיסטוריה של ה...</t>
+  </si>
+  <si>
     <t>[?]med</t>
   </si>
   <si>
-    <t>יואב בסדר</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>הכל בסדר הכל יהיה בסדר. קודם כל אין מה להיבהל.</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>אז יופי כי בעלי כבר אמר לי שהוא תכף בחניון.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>אוקיי.</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז אני רק רוצה שאנחנו נדע מה קורה? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בואי תספרי לי שנייה מה מבחינתך קרה, איך זה התנהל ו... </t>
-  </si>
-  <si>
-    <t>כלום. כאב לו הבטן,</t>
-  </si>
-  <si>
-    <t>כן,</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>כאבה לו הבטן אז הבאנו אותו לפה ובטח הוא קצת התייבש.</t>
-  </si>
-  <si>
-    <t>אהמ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נתתם לו נוזלים, נוזלים, </t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ראיתי, הצצתי שהוא מרגיש יותר טוב. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא יודעת מה מחזיקים אותנו פה. </t>
-  </si>
-  <si>
-    <t>לא מחזיקים אתכם</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> דקה, הבאת את יואב, נכון הוא לא הרגיש לא טוב.</t>
-  </si>
-  <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>כאבי בטן קצת בחילות,</t>
-  </si>
-  <si>
-    <t>אא עשינו את הבדיקות ש... שהיינו צריכים לעשות.</t>
-  </si>
-  <si>
-    <t>אוקיי,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">והגענו לאבחנה מסוימת. </t>
-  </si>
-  <si>
-    <t>חשוב לי שתדעי שהכל יהיה בסדר אין מה לדאוג.</t>
-  </si>
-  <si>
-    <t>אני רוצה (לא נשמע) מה לדאוג.</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>מה, אני עכשיו מתחילה לדאוג.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>טוב מאד שהבאתם אותו למיון דבר ראשון, בזמן שהבאתם אותו.</t>
-  </si>
-  <si>
-    <t>approve</t>
-  </si>
-  <si>
-    <t>למה מה קרה?</t>
-  </si>
-  <si>
-    <t>לא. הכל בסדר. אין מה לדאוג. אל תהיי בלחץ.</t>
-  </si>
-  <si>
-    <t>נו,</t>
-  </si>
-  <si>
-    <t>הגענו לאבחנה מסוימת של מחלה מסוימת שאפשר להתמודד איתה בלי שום בעיה.</t>
-  </si>
-  <si>
-    <t>הגלוקוז שלו היה מאד גבוה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> שזה מה שהוביל לסימפטומים שאיתם הגעתם לפה. </t>
-  </si>
-  <si>
-    <t>והגענו לאבחנה של סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>מה?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>כן. יש לכם במשפחה איזשהו קשר בהיסטוריה של ה...</t>
-  </si>
-  <si>
     <t xml:space="preserve">מה פתאום?! הוא קצת התייבש אכל אא שטויות. </t>
   </si>
   <si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">בגלל זה בגיליים מבוגרים יותר זה קצת יותר קשה </t>
-  </si>
-  <si>
-    <t>legit</t>
   </si>
   <si>
     <t>אבל בגיל הזה זה טוב שתפסנו את זה בגיל הזה... אוקיי,</t>
@@ -898,18 +895,18 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -917,48 +914,48 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -969,227 +966,227 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -1200,90 +1197,90 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1291,10 +1288,10 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1302,10 +1299,10 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1313,10 +1310,10 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1327,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1335,10 +1332,10 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1346,10 +1343,10 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1360,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1371,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1379,10 +1376,10 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1390,10 +1387,10 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1401,10 +1398,10 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1412,7 +1409,7 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -1423,10 +1420,10 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1434,10 +1431,10 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1445,10 +1442,10 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1456,10 +1453,10 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1467,7 +1464,7 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1478,10 +1475,10 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1489,10 +1486,10 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1500,10 +1497,10 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1511,10 +1508,10 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1522,10 +1519,10 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1536,7 +1533,7 @@
         <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1547,7 +1544,7 @@
         <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1558,7 +1555,7 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1566,10 +1563,10 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1580,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1588,10 +1585,10 @@
         <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1599,10 +1596,10 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1610,10 +1607,10 @@
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1624,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1632,10 +1629,10 @@
         <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1646,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1665,10 +1662,10 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1676,10 +1673,10 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1687,10 +1684,10 @@
         <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1698,10 +1695,10 @@
         <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1709,10 +1706,10 @@
         <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1723,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1734,7 +1731,7 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1742,21 +1739,21 @@
         <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1764,10 +1761,10 @@
         <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1797,10 +1794,10 @@
         <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1808,10 +1805,10 @@
         <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1819,10 +1816,10 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1830,10 +1827,10 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1844,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1852,10 +1849,10 @@
         <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1866,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1874,10 +1871,10 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1885,10 +1882,10 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1896,10 +1893,10 @@
         <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1907,54 +1904,54 @@
         <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
